--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnfsf13</t>
   </si>
   <si>
     <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.634123166293367</v>
+        <v>0.637903</v>
       </c>
       <c r="H2">
-        <v>0.634123166293367</v>
+        <v>1.913709</v>
       </c>
       <c r="I2">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714845</v>
       </c>
       <c r="J2">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714844</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.7980653358573</v>
+        <v>34.53682066666666</v>
       </c>
       <c r="N2">
-        <v>32.7980653358573</v>
+        <v>103.610462</v>
       </c>
       <c r="O2">
-        <v>0.2802148207464714</v>
+        <v>0.2803141013583512</v>
       </c>
       <c r="P2">
-        <v>0.2802148207464714</v>
+        <v>0.2803141013583513</v>
       </c>
       <c r="Q2">
-        <v>20.79801303907055</v>
+        <v>22.03114151372866</v>
       </c>
       <c r="R2">
-        <v>20.79801303907055</v>
+        <v>198.280273623558</v>
       </c>
       <c r="S2">
-        <v>0.0485921162989302</v>
+        <v>0.03445097104530032</v>
       </c>
       <c r="T2">
-        <v>0.0485921162989302</v>
+        <v>0.03445097104530032</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.634123166293367</v>
+        <v>0.637903</v>
       </c>
       <c r="H3">
-        <v>0.634123166293367</v>
+        <v>1.913709</v>
       </c>
       <c r="I3">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714845</v>
       </c>
       <c r="J3">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714844</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.7062873838009</v>
+        <v>47.750315</v>
       </c>
       <c r="N3">
-        <v>47.7062873838009</v>
+        <v>143.250945</v>
       </c>
       <c r="O3">
-        <v>0.4075852837916177</v>
+        <v>0.3875598963781245</v>
       </c>
       <c r="P3">
-        <v>0.4075852837916177</v>
+        <v>0.3875598963781245</v>
       </c>
       <c r="Q3">
-        <v>30.25166200791713</v>
+        <v>30.460069189445</v>
       </c>
       <c r="R3">
-        <v>30.25166200791713</v>
+        <v>274.140622705005</v>
       </c>
       <c r="S3">
-        <v>0.07067945749255719</v>
+        <v>0.04763162004245199</v>
       </c>
       <c r="T3">
-        <v>0.07067945749255719</v>
+        <v>0.04763162004245198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.634123166293367</v>
+        <v>0.637903</v>
       </c>
       <c r="H4">
-        <v>0.634123166293367</v>
+        <v>1.913709</v>
       </c>
       <c r="I4">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714845</v>
       </c>
       <c r="J4">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714844</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.7296841237288</v>
+        <v>28.69151433333333</v>
       </c>
       <c r="N4">
-        <v>25.7296841237288</v>
+        <v>86.07454300000001</v>
       </c>
       <c r="O4">
-        <v>0.2198251253774917</v>
+        <v>0.232871350104353</v>
       </c>
       <c r="P4">
-        <v>0.2198251253774917</v>
+        <v>0.232871350104353</v>
       </c>
       <c r="Q4">
-        <v>16.31578876426708</v>
+        <v>18.30240306777633</v>
       </c>
       <c r="R4">
-        <v>16.31578876426708</v>
+        <v>164.721627609987</v>
       </c>
       <c r="S4">
-        <v>0.03811992538194288</v>
+        <v>0.02862019463469295</v>
       </c>
       <c r="T4">
-        <v>0.03811992538194288</v>
+        <v>0.02862019463469295</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.634123166293367</v>
+        <v>0.637903</v>
       </c>
       <c r="H5">
-        <v>0.634123166293367</v>
+        <v>1.913709</v>
       </c>
       <c r="I5">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714845</v>
       </c>
       <c r="J5">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714844</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.8121109959232</v>
+        <v>12.228925</v>
       </c>
       <c r="N5">
-        <v>10.8121109959232</v>
+        <v>36.686775</v>
       </c>
       <c r="O5">
-        <v>0.09237477008441904</v>
+        <v>0.09925465215917123</v>
       </c>
       <c r="P5">
-        <v>0.09237477008441904</v>
+        <v>0.09925465215917123</v>
       </c>
       <c r="Q5">
-        <v>6.856210059050149</v>
+        <v>7.800867944275002</v>
       </c>
       <c r="R5">
-        <v>6.856210059050149</v>
+        <v>70.20781149847501</v>
       </c>
       <c r="S5">
-        <v>0.01601873005528938</v>
+        <v>0.0121985270490392</v>
       </c>
       <c r="T5">
-        <v>0.01601873005528938</v>
+        <v>0.0121985270490392</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.164862265629508</v>
+        <v>0.170281</v>
       </c>
       <c r="H6">
-        <v>0.164862265629508</v>
+        <v>0.510843</v>
       </c>
       <c r="I6">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="J6">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.7980653358573</v>
+        <v>34.53682066666666</v>
       </c>
       <c r="N6">
-        <v>32.7980653358573</v>
+        <v>103.610462</v>
       </c>
       <c r="O6">
-        <v>0.2802148207464714</v>
+        <v>0.2803141013583512</v>
       </c>
       <c r="P6">
-        <v>0.2802148207464714</v>
+        <v>0.2803141013583513</v>
       </c>
       <c r="Q6">
-        <v>5.407163359534065</v>
+        <v>5.880964359940667</v>
       </c>
       <c r="R6">
-        <v>5.407163359534065</v>
+        <v>52.92867923946601</v>
       </c>
       <c r="S6">
-        <v>0.01263320252373182</v>
+        <v>0.009196297557096901</v>
       </c>
       <c r="T6">
-        <v>0.01263320252373182</v>
+        <v>0.009196297557096902</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.164862265629508</v>
+        <v>0.170281</v>
       </c>
       <c r="H7">
-        <v>0.164862265629508</v>
+        <v>0.510843</v>
       </c>
       <c r="I7">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="J7">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.7062873838009</v>
+        <v>47.750315</v>
       </c>
       <c r="N7">
-        <v>47.7062873838009</v>
+        <v>143.250945</v>
       </c>
       <c r="O7">
-        <v>0.4075852837916177</v>
+        <v>0.3875598963781245</v>
       </c>
       <c r="P7">
-        <v>0.4075852837916177</v>
+        <v>0.3875598963781245</v>
       </c>
       <c r="Q7">
-        <v>7.864966622865831</v>
+        <v>8.130971388515</v>
       </c>
       <c r="R7">
-        <v>7.864966622865831</v>
+        <v>73.17874249663501</v>
       </c>
       <c r="S7">
-        <v>0.01837557136383927</v>
+        <v>0.01271472291625649</v>
       </c>
       <c r="T7">
-        <v>0.01837557136383927</v>
+        <v>0.01271472291625649</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.164862265629508</v>
+        <v>0.170281</v>
       </c>
       <c r="H8">
-        <v>0.164862265629508</v>
+        <v>0.510843</v>
       </c>
       <c r="I8">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="J8">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.7296841237288</v>
+        <v>28.69151433333333</v>
       </c>
       <c r="N8">
-        <v>25.7296841237288</v>
+        <v>86.07454300000001</v>
       </c>
       <c r="O8">
-        <v>0.2198251253774917</v>
+        <v>0.232871350104353</v>
       </c>
       <c r="P8">
-        <v>0.2198251253774917</v>
+        <v>0.232871350104353</v>
       </c>
       <c r="Q8">
-        <v>4.241854018569512</v>
+        <v>4.885619752194334</v>
       </c>
       <c r="R8">
-        <v>4.241854018569512</v>
+        <v>43.97057776974901</v>
       </c>
       <c r="S8">
-        <v>0.009910594026756391</v>
+        <v>0.007639837659628738</v>
       </c>
       <c r="T8">
-        <v>0.009910594026756391</v>
+        <v>0.007639837659628738</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.164862265629508</v>
+        <v>0.170281</v>
       </c>
       <c r="H9">
-        <v>0.164862265629508</v>
+        <v>0.510843</v>
       </c>
       <c r="I9">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="J9">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.8121109959232</v>
+        <v>12.228925</v>
       </c>
       <c r="N9">
-        <v>10.8121109959232</v>
+        <v>36.686775</v>
       </c>
       <c r="O9">
-        <v>0.09237477008441904</v>
+        <v>0.09925465215917123</v>
       </c>
       <c r="P9">
-        <v>0.09237477008441904</v>
+        <v>0.09925465215917123</v>
       </c>
       <c r="Q9">
-        <v>1.782509115025615</v>
+        <v>2.082353577925001</v>
       </c>
       <c r="R9">
-        <v>1.782509115025615</v>
+        <v>18.741182201325</v>
       </c>
       <c r="S9">
-        <v>0.004164623325243315</v>
+        <v>0.003256258999310936</v>
       </c>
       <c r="T9">
-        <v>0.004164623325243315</v>
+        <v>0.003256258999310936</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.85779519234462</v>
+        <v>3.407124666666667</v>
       </c>
       <c r="H10">
-        <v>2.85779519234462</v>
+        <v>10.221374</v>
       </c>
       <c r="I10">
-        <v>0.7815057795317095</v>
+        <v>0.6564322386153376</v>
       </c>
       <c r="J10">
-        <v>0.7815057795317095</v>
+        <v>0.6564322386153377</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.7980653358573</v>
+        <v>34.53682066666666</v>
       </c>
       <c r="N10">
-        <v>32.7980653358573</v>
+        <v>103.610462</v>
       </c>
       <c r="O10">
-        <v>0.2802148207464714</v>
+        <v>0.2803141013583512</v>
       </c>
       <c r="P10">
-        <v>0.2802148207464714</v>
+        <v>0.2803141013583513</v>
       </c>
       <c r="Q10">
-        <v>93.73015343501774</v>
+        <v>117.6712536016431</v>
       </c>
       <c r="R10">
-        <v>93.73015343501774</v>
+        <v>1059.041282414788</v>
       </c>
       <c r="S10">
-        <v>0.2189895019238094</v>
+        <v>0.1840072130701091</v>
       </c>
       <c r="T10">
-        <v>0.2189895019238094</v>
+        <v>0.1840072130701092</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.85779519234462</v>
+        <v>3.407124666666667</v>
       </c>
       <c r="H11">
-        <v>2.85779519234462</v>
+        <v>10.221374</v>
       </c>
       <c r="I11">
-        <v>0.7815057795317095</v>
+        <v>0.6564322386153376</v>
       </c>
       <c r="J11">
-        <v>0.7815057795317095</v>
+        <v>0.6564322386153377</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>47.7062873838009</v>
+        <v>47.750315</v>
       </c>
       <c r="N11">
-        <v>47.7062873838009</v>
+        <v>143.250945</v>
       </c>
       <c r="O11">
-        <v>0.4075852837916177</v>
+        <v>0.3875598963781245</v>
       </c>
       <c r="P11">
-        <v>0.4075852837916177</v>
+        <v>0.3875598963781245</v>
       </c>
       <c r="Q11">
-        <v>136.334798730037</v>
+        <v>162.6912760776033</v>
       </c>
       <c r="R11">
-        <v>136.334798730037</v>
+        <v>1464.22148469843</v>
       </c>
       <c r="S11">
-        <v>0.3185302549352212</v>
+        <v>0.2544068103770205</v>
       </c>
       <c r="T11">
-        <v>0.3185302549352212</v>
+        <v>0.2544068103770206</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.85779519234462</v>
+        <v>3.407124666666667</v>
       </c>
       <c r="H12">
-        <v>2.85779519234462</v>
+        <v>10.221374</v>
       </c>
       <c r="I12">
-        <v>0.7815057795317095</v>
+        <v>0.6564322386153376</v>
       </c>
       <c r="J12">
-        <v>0.7815057795317095</v>
+        <v>0.6564322386153377</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.7296841237288</v>
+        <v>28.69151433333333</v>
       </c>
       <c r="N12">
-        <v>25.7296841237288</v>
+        <v>86.07454300000001</v>
       </c>
       <c r="O12">
-        <v>0.2198251253774917</v>
+        <v>0.232871350104353</v>
       </c>
       <c r="P12">
-        <v>0.2198251253774917</v>
+        <v>0.232871350104353</v>
       </c>
       <c r="Q12">
-        <v>73.53016758933786</v>
+        <v>97.75556620912023</v>
       </c>
       <c r="R12">
-        <v>73.53016758933786</v>
+        <v>879.8000958820821</v>
       </c>
       <c r="S12">
-        <v>0.1717946059687925</v>
+        <v>0.1528642616583765</v>
       </c>
       <c r="T12">
-        <v>0.1717946059687925</v>
+        <v>0.1528642616583765</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.407124666666667</v>
+      </c>
+      <c r="H13">
+        <v>10.221374</v>
+      </c>
+      <c r="I13">
+        <v>0.6564322386153376</v>
+      </c>
+      <c r="J13">
+        <v>0.6564322386153377</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>12.228925</v>
+      </c>
+      <c r="N13">
+        <v>36.686775</v>
+      </c>
+      <c r="O13">
+        <v>0.09925465215917123</v>
+      </c>
+      <c r="P13">
+        <v>0.09925465215917123</v>
+      </c>
+      <c r="Q13">
+        <v>41.66547201431668</v>
+      </c>
+      <c r="R13">
+        <v>374.9892481288501</v>
+      </c>
+      <c r="S13">
+        <v>0.06515395350983143</v>
+      </c>
+      <c r="T13">
+        <v>0.06515395350983144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.85779519234462</v>
-      </c>
-      <c r="H13">
-        <v>2.85779519234462</v>
-      </c>
-      <c r="I13">
-        <v>0.7815057795317095</v>
-      </c>
-      <c r="J13">
-        <v>0.7815057795317095</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>10.8121109959232</v>
-      </c>
-      <c r="N13">
-        <v>10.8121109959232</v>
-      </c>
-      <c r="O13">
-        <v>0.09237477008441904</v>
-      </c>
-      <c r="P13">
-        <v>0.09237477008441904</v>
-      </c>
-      <c r="Q13">
-        <v>30.89879882324572</v>
-      </c>
-      <c r="R13">
-        <v>30.89879882324572</v>
-      </c>
-      <c r="S13">
-        <v>0.07219141670388633</v>
-      </c>
-      <c r="T13">
-        <v>0.07219141670388633</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.975059</v>
+      </c>
+      <c r="H14">
+        <v>2.925177</v>
+      </c>
+      <c r="I14">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="J14">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>34.53682066666666</v>
+      </c>
+      <c r="N14">
+        <v>103.610462</v>
+      </c>
+      <c r="O14">
+        <v>0.2803141013583512</v>
+      </c>
+      <c r="P14">
+        <v>0.2803141013583513</v>
+      </c>
+      <c r="Q14">
+        <v>33.67543782241933</v>
+      </c>
+      <c r="R14">
+        <v>303.078940401774</v>
+      </c>
+      <c r="S14">
+        <v>0.05265961968584484</v>
+      </c>
+      <c r="T14">
+        <v>0.05265961968584486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.975059</v>
+      </c>
+      <c r="H15">
+        <v>2.925177</v>
+      </c>
+      <c r="I15">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="J15">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>47.750315</v>
+      </c>
+      <c r="N15">
+        <v>143.250945</v>
+      </c>
+      <c r="O15">
+        <v>0.3875598963781245</v>
+      </c>
+      <c r="P15">
+        <v>0.3875598963781245</v>
+      </c>
+      <c r="Q15">
+        <v>46.559374393585</v>
+      </c>
+      <c r="R15">
+        <v>419.034369542265</v>
+      </c>
+      <c r="S15">
+        <v>0.07280674304239546</v>
+      </c>
+      <c r="T15">
+        <v>0.07280674304239546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.975059</v>
+      </c>
+      <c r="H16">
+        <v>2.925177</v>
+      </c>
+      <c r="I16">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="J16">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>28.69151433333333</v>
+      </c>
+      <c r="N16">
+        <v>86.07454300000001</v>
+      </c>
+      <c r="O16">
+        <v>0.232871350104353</v>
+      </c>
+      <c r="P16">
+        <v>0.232871350104353</v>
+      </c>
+      <c r="Q16">
+        <v>27.97591927434567</v>
+      </c>
+      <c r="R16">
+        <v>251.783273469111</v>
+      </c>
+      <c r="S16">
+        <v>0.04374705615165483</v>
+      </c>
+      <c r="T16">
+        <v>0.04374705615165484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.975059</v>
+      </c>
+      <c r="H17">
+        <v>2.925177</v>
+      </c>
+      <c r="I17">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="J17">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.228925</v>
+      </c>
+      <c r="N17">
+        <v>36.686775</v>
+      </c>
+      <c r="O17">
+        <v>0.09925465215917123</v>
+      </c>
+      <c r="P17">
+        <v>0.09925465215917123</v>
+      </c>
+      <c r="Q17">
+        <v>11.923923381575</v>
+      </c>
+      <c r="R17">
+        <v>107.315310434175</v>
+      </c>
+      <c r="S17">
+        <v>0.01864591260098966</v>
+      </c>
+      <c r="T17">
+        <v>0.01864591260098967</v>
       </c>
     </row>
   </sheetData>
